--- a/Projektarbeit/DB Schulung.xlsx
+++ b/Projektarbeit/DB Schulung.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Molinek\Projektarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukasz\Source\Repos\PrimusMSSQL\Projektarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67EFBD2-110F-47F2-A8A7-00092A7E6EBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A833ED1-6282-41EC-B557-523F001DACAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{5DAD4C1C-93AA-481C-B32E-9479CC24FCDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DAD4C1C-93AA-481C-B32E-9479CC24FCDB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagramm DB" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,9 +39,6 @@
     <t>ansprechpartner</t>
   </si>
   <si>
-    <t>Schulungen/Produkte</t>
-  </si>
-  <si>
     <t>Standort</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Maprimus</t>
   </si>
   <si>
-    <t>Teilnehmernr PS int identity</t>
-  </si>
-  <si>
     <t>name varchar (30)</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t xml:space="preserve">durchwahl varchar(20) </t>
   </si>
   <si>
-    <t>Preis pro Tag numeric(5,2)</t>
-  </si>
-  <si>
-    <t>Dauer( Tage) int</t>
-  </si>
-  <si>
     <t>mailadresse varchar (60)</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>produktname varchar (30)</t>
   </si>
   <si>
-    <t>mitarbeiter id PS int identity</t>
-  </si>
-  <si>
     <t>buchungsid PS int identity</t>
   </si>
   <si>
@@ -153,37 +138,52 @@
     <t>teilnehmernr FK int</t>
   </si>
   <si>
-    <t>Dozentnr FK int</t>
-  </si>
-  <si>
     <t>standortid FK int</t>
   </si>
   <si>
     <t>standort id PK int identity</t>
   </si>
   <si>
-    <t>Fstrasse + Hausnummer varchar (50)</t>
-  </si>
-  <si>
-    <t>Fplz int</t>
-  </si>
-  <si>
-    <t>Fort varchar (30)</t>
-  </si>
-  <si>
-    <t>Fmailadresse varchar (60)</t>
-  </si>
-  <si>
-    <t>Fname varchar (30)</t>
-  </si>
-  <si>
-    <t>Firmanr  PS int identity</t>
-  </si>
-  <si>
     <t>firmanr FK int</t>
   </si>
   <si>
     <t>firmanr FS</t>
+  </si>
+  <si>
+    <t>dozentnr FK int</t>
+  </si>
+  <si>
+    <t>firmanr  PS int identity</t>
+  </si>
+  <si>
+    <t>fname varchar (30)</t>
+  </si>
+  <si>
+    <t>fstrasse + Hausnummer varchar (50)</t>
+  </si>
+  <si>
+    <t>fplz int</t>
+  </si>
+  <si>
+    <t>fort varchar (30)</t>
+  </si>
+  <si>
+    <t>fmailadresse varchar (60)</t>
+  </si>
+  <si>
+    <t>teilnehmernr PS int identity</t>
+  </si>
+  <si>
+    <t>dauer( Tage) int</t>
+  </si>
+  <si>
+    <t>preis numeric(5,2)</t>
+  </si>
+  <si>
+    <t>Produkte</t>
+  </si>
+  <si>
+    <t>mitarbeiterid PS int identity</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -547,21 +547,21 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,216 +572,216 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
